--- a/P0093/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0093/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0093\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEDCE94-2C94-48C1-81DC-E719B80DA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{FDEDCE94-2C94-48C1-81DC-E719B80DA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061B952F-A167-45C8-8758-075D603939D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,10 +101,7 @@
     <t>Análisis de frecuencia hidrológico multivariado para eventos extremos mediante funciones cópula arquimedianas. Casos de estudio: cuenca baja del Rio Tunjuelo y región de la Mojana (Colombia).</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNAL/80844185.217</t>
-  </si>
-  <si>
-    <t>Wilmar Jair Gómez Rios</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNAL/80844185.2017.pdf</t>
   </si>
   <si>
     <t>Universidad Nacional de Colombia</t>
@@ -131,7 +128,7 @@
     <t>Se podría incluir un análisis más detallado sobre cómo las diferentes familias de cópulas se comparan en términos de ajuste y aplicabilidad a diferentes contextos hidrológicos. Por otra parte, los hallazgos del documento son altamente relevantes para la toma de decisiones en la gestión de recursos hídricos y la planificación de infraestructuras</t>
   </si>
   <si>
-    <t>Hidrología, Eventos extremos, Funciones cópula, Análisis multivariado, Curvas IDF, Cuenca baja Río Tunjuelo, Periodos de retorno, Análisis de riesgo</t>
+    <t>Hidrología, eventos extremos, funciones cópula, análisis multivariado, curvas IDF, cuenca baja, Río Tunjuelo, periodos de retorno, análisis de riesgo</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -140,22 +137,22 @@
     <t>Metodología para la estimación del destino y transporte de mercurio presente en los ríos de Colombia</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/Documento Tesis DanielaCorreaCaselles</t>
-  </si>
-  <si>
-    <t>Daniela Fernanda Correa-Caselles</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/Documento Tesis DanielaCorreaCaselles.pdf</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes</t>
   </si>
   <si>
     <t>El informe presenta un estudio sobre la contaminación por mercurio en el sistema hídrico colombiano, con un enfoque particular en las implicaciones de la minería de oro. El objetivo principal del documento es desarrollar y validar una metodología que permita modelar el comportamiento del mercurio en ríos a nivel nacional, facilitando así la identificación de zonas críticas y la formulación de políticas de gestión ambiental. A través de la metodología desarrollada, se logró modelar el comportamiento del mercurio en ríos a nivel nacional, permitiendo identificar zonas críticas de contaminación.</t>
   </si>
   <si>
-    <t>Se estimó que en 2016, la actividad minera generó un vertimiento de aproximadamente 183 toneladas de mercurio al suelo y al agua. Las concentraciones de mercurio en varios ríos se mantuvieron dentro de los estándares regulatorios, pero se observaron persistencias en fuentes receptoras a lo largo de distancias significativas. Además, se identificaron áreas históricamente afectadas por la contaminación por mercurio, incluyendo departamentos como Antioquia y municipios como Segovia y Remedios, donde la minería de oro es intensa. Por otra parte, la metodología permitió la creación de mapas que visualizan la distribución del mercurio en la red hídrica, facilitando la identificación de puntos de interés para la regulación y el control ambiental. Por último, el estudio concluye que la contaminación por mercurio en los ríos de Colombia es un problema persistente, con implicaciones significativas para la salud pública y el medio ambiente. A pesar de que las concentraciones en muchas áreas cumplen con los estándares, la persistencia del mercurio en las fuentes receptoras requiere atención continua. La metodología desarrollada no solo proporciona un diagnóstico del estado actual del mercurio en los ríos, sino que también establece un marco para futuras investigaciones y monitoreo.</t>
+    <t>En 2016, se estimó que la actividad minera generó alrededor de 183 toneladas de mercurio vertidas al suelo y al agua en Colombia. Aunque las concentraciones de mercurio en varios ríos se mantuvieron dentro de los estándares regulatorios, se observó su persistencia en fuentes receptoras a lo largo de distancias significativas. Se identificaron áreas históricamente afectadas, como los departamentos de Antioquia y los municipios de Segovia y Remedios, donde la minería de oro es intensa. La metodología desarrollada permitió la creación de mapas que visualizan la distribución del mercurio en la red hídrica, facilitando la identificación de puntos críticos para la regulación y el control ambiental. El estudio concluye que la contaminación por mercurio en los ríos de Colombia es un problema persistente con graves implicaciones para la salud pública y el medio ambiente. A pesar de que las concentraciones en muchas áreas cumplen con los estándares, la persistencia del mercurio en las fuentes receptoras requiere atención continua. La metodología no solo proporciona un diagnóstico del estado actual del mercurio en los ríos, sino que también establece un marco para futuras investigaciones y monitoreo.</t>
   </si>
   <si>
     <t>Proporciona información valiosa que puede ser utilizada para desarrollar políticas más efectivas en la gestión del mercurio y la protección de los recursos hídricos. Por otra parte, se observa que el documento menciona limitaciones en el monitoreo de las descargas de mercurio y la falta de datos completos sobre los puntos de descarga en el país. Esto sugiere que el estudio podría beneficiarse de una recopilación de datos más exhaustiva para fortalecer sus conclusiones.</t>
   </si>
   <si>
-    <t>Mercurio, Contaminación por mercurio, Minería de Oro, Modelación de metales, Calidad de agua, Impacto ambiental, Diagnóstico de mercurio</t>
+    <t>Mercurio, contaminación, minería de Oro, modelación, metales, calidad de agua, impacto ambiental, diagnóstico de mercurio</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -164,16 +161,16 @@
     <t>Recursos fitogenéticos nativos de la región de La Mojana: una poderosa estrategia de resiliencia de los pequeños productores para mejorar la productividad ante los efectos de la variabilidad climática</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/nys7.02</t>
-  </si>
-  <si>
-    <t>Universidad de Córdoba (Colombia)</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/nys7.02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Córdoba </t>
   </si>
   <si>
     <t>PNUD (Colombia)</t>
   </si>
   <si>
-    <t>El informe se centra en la evaluación de la respuesta fisiológica de diversas especies agrícolas ante condiciones de estrés hídrico, específicamente inundación y sequía. Este estudio se llevó a cabo en la región de La Mojana, que abarca varios municipios de los departamentos de Sucre y Córdoba en Colombia, donde la agricultura es una actividad fundamental para la subsistencia de pequeños productores y comunidades indígenas, como la población zenú.</t>
+    <t>El informe se centra en la evaluación de la respuesta fisiológica de diversas especies agrícolas ante condiciones de estrés hídrico, específicamente inundación y sequía. Este estudio se llevó a cabo en la región de La Mojana, que abarca varios municipios de los departamentos de Sucre y Córdoba en Colombia, donde la agricultura es una actividad fundamental para la subsistencia de pequeños productores y comunidades indígenas, como la población Zenú.</t>
   </si>
   <si>
     <t>El objetivo principal del documento es analizar cómo las especies criollas y nativas pueden ser utilizadas como una estrategia de resiliencia para mejorar la productividad agrícola en un contexto de variabilidad climática. Se busca identificar las respuestas fisiológicas de estas especies ante condiciones adversas, lo que podría facilitar la adaptación de los sistemas de producción agrícola a los desafíos climáticos. Dentro de los principales resultados se encuentra que las especies hortícolas mostraron una alta sensibilidad a las condiciones de inundación, lo que impacta negativamente su productividad. En contraste, bajo condiciones de sequía moderada, se observó una capacidad de recuperación en varias de estas especies. Por otra parte que entre las variedades de arroz analizadas, las genéticas Chombo y LV demostraron una notable capacidad para recuperarse de estrés por sequía moderada, mientras que el genotipo Bogotano no mostró esta capacidad, lo que sugiere la importancia de seleccionar variedades adecuadas para condiciones climáticas cambiantes. Además que las especies perennes, aunque presentaron una reducción en sus tasas de intercambio gaseoso bajo estrés, lograron normalizar estos valores durante la fase de recuperación, indicando su resiliencia ante condiciones adversas. Por último, se concluye que los recursos fitogenéticos nativos son fundamentales para la resiliencia de los pequeños productores, ya que su alta variabilidad genética les permite tolerar condiciones extremas de inundación y sequía.</t>
@@ -182,7 +179,7 @@
     <t>El informe podría beneficiarse de una discusión más profunda sobre las implicaciones socioeconómicas de la adopción de estas prácticas agrícolas</t>
   </si>
   <si>
-    <t>Adaptación al cambio climático, Estrés por inundación, Estrés por sequía, Mojana, Pequeños agricultores, Productividad agrícola, Sistemas agrícolas</t>
+    <t>Adaptación al cambio climático, estrés por inundación, estrés por sequía, mojana, pequeños agricultores, productividad agrícola, sistemas agrícolas</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -191,13 +188,7 @@
     <t>Evaluación de la huella de carbono y consumo de energía en el ciclo de vida de la vivienda económica hecha en madera. Caso de estudio: La Mojana, Municipio de San Marcos. Sucre – Colombia</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/u402623</t>
-  </si>
-  <si>
-    <t>Neicy Paola Escobar Suárez</t>
-  </si>
-  <si>
-    <t>Universidad de los Andes</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/u402623.pdf</t>
   </si>
   <si>
     <t>El informe presenta un estudio realizado por la ingeniera ambiental Neicy Paola Escobar Suárez, centrado en el municipio de San Marcos, ubicado en la región de La Mojana, Sucre, Colombia. El objetivo principal del estudio es analizar el impacto ambiental de las viviendas económicas construidas con madera, evaluando su huella de carbono y el consumo energético a lo largo de su ciclo de vida, abordando una revisión bibliográfica que establece el estado del arte sobre la evaluación del ciclo de vida (ACV) aplicado a la construcción, identificando las metodologías existentes y su aplicabilidad en el contexto colombiano.</t>
@@ -209,7 +200,7 @@
     <t xml:space="preserve">La evidencia de que la madera puede ser una alternativa más sostenible en comparación con otros materiales puede influir en decisiones sobre normativas de construcción y promoción de materiales ecológicos. No se presenta la hoja de cálculo mencionada en el documento </t>
   </si>
   <si>
-    <t>Huella de carbono, Consumo energético, Vivienda económica, Madera, Ciclo de vida, Sostenibilidad, San Marcos</t>
+    <t>Huella de carbono, consumo energético, vivienda económica, madera, ciclo de vida, sostenibilidad, San Marcos</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -218,7 +209,7 @@
     <t>Plan Integral de Gestión del Cambio Climático Territorial</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE CORDOBA/LIBRO PIGCCT SUCRE 2023</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE CORDOBA/LIBRO PIGCCT SUCRE 2023.pdf</t>
   </si>
   <si>
     <t>Gobernación de Sucre</t>
@@ -227,19 +218,15 @@
     <t>El informe presenta un análisis sobre la variabilidad climática y su impacto en el territorio del departamento de Sucre, Colombia. Su objetivo principal es mitigar el daño asociado al riesgo climático en los sectores productivos, la seguridad alimentaria, la biodiversidad, los socioecosistemas y los recursos hídricos, a través del diseño e implementación de medidas climáticas adaptativas y mitigadoras. El contenido se organiza en dos fases principales: la fase de alistamiento y la fase de perfil territorial. En la fase de alistamiento, se revisan documentos relevantes y se establece un marco normativo que guía la gestión del cambio climático. Se identifican los actores clave y se plantean objetivos específicos que incluyen el análisis del comportamiento climatológico y el fortalecimiento de capacidades territoriales.</t>
   </si>
   <si>
-    <t>El "Plan Integral de Gestión del Cambio Climático Territorial - Sucre" presenta un análisis detallado de la situación climática y sus implicaciones en el departamento de Sucre, Colombia. A través de un enfoque multidimensional, en donde se documenta un aumento significativo en las temperaturas y cambios en los patrones de precipitación entre 1990 y 2019, con proyecciones que indican un incremento continuo hasta 2050. Las "ventanas" de análisis (1990-1994, 2004-2010 y 2011-2019) revelaron tendencias preocupantes que afectan la agricultura y la disponibilidad de recursos hídricos. Además, se desarrolla un modelo hidrogeológico el cual indica que la escorrentía y la infiltración se verán afectadas por el cambio climático, lo que podría comprometer la disponibilidad de agua para consumo y riego. Se identificaron áreas vulnerables a la contaminación y sobreexplotación de acuíferos. Adicionalmente, se observa que los ecosistemas locales están en riesgo debido a la alteración de sus condiciones climáticas. La pérdida de biodiversidad y la degradación de hábitats son preocupaciones críticas que requieren atención inmediata. Y el análisis sociodemográfico reveló que las comunidades más vulnerables son aquellas con menor acceso a recursos y capacidades de adaptación. La inseguridad alimentaria y la dependencia de la agricultura tradicional aumentan la exposición al riesgo climático. Por último se identificaron las principales fuentes de emisiones de GEI en la región, destacando la necesidad de implementar medidas de mitigación efectivas. Se concluye que es imperativo adoptar un enfoque integral para la gestión del cambio climático en Sucre. Las medidas de adaptación y mitigación deben ser implementadas de manera urgente para reducir la vulnerabilidad de los sectores productivos y proteger los recursos naturales. Se enfatiza la importancia de la educación y la sensibilización en la comunidad para fomentar la resiliencia.</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>En el documento</t>
-  </si>
-  <si>
-    <t>Los anexos se encuentran dentro del documento. El informe proporciona un marco claro para la acción y puede servir como base para la formulación de políticas públicas que aborden el cambio climático de manera efectiva. Se sugiere incluir un plan de monitoreo y evaluación que permita medir el progreso de las acciones implementadas y ajustar las estrategias según sea necesario. Esto es fundamental para garantizar la efectividad del plan a largo plazo.</t>
-  </si>
-  <si>
-    <t>Cambio Climático, Sucre, Gestión Territorial, Variabilidad Climática, Recursos Hídricos, Biodiversidad, Vulnerabilidad, Gases de Efecto Invernadero, Adaptación, Mitigación</t>
+    <t>El "Plan Integral de Gestión del Cambio Climático Territorial - Sucre" presenta un análisis detallado de la situación climática y sus implicaciones en el departamento de Sucre, Colombia. A través de un enfoque multidimensional, se documenta un aumento significativo en las temperaturas y cambios en los patrones de precipitación entre 1990 y 2019, con proyecciones que indican un incremento continuo hasta 2050. Las "ventanas" de análisis (1990-1994, 2004-2010 y 2011-2019) revelan tendencias preocupantes que afectan la agricultura y la disponibilidad de recursos hídricos. Además, se desarrolla un modelo hidrogeológico que indica que la escorrentía y la infiltración se verán afectadas por el cambio climático, lo que podría comprometer la disponibilidad de agua para consumo y riego. Se identificaron áreas vulnerables a la contaminación y sobreexplotación de acuíferos. Adicionalmente, se observa que los ecosistemas locales están en riesgo debido a la alteración de sus condiciones climáticas. La pérdida de biodiversidad y la degradación de hábitats son preocupaciones críticas que requieren atención inmediata.
+El análisis sociodemográfico revela que las comunidades más vulnerables son aquellas con menor acceso a recursos y capacidades de adaptación. La inseguridad alimentaria y la dependencia de la agricultura tradicional aumentan la exposición al riesgo climático. Por último, se identifican las principales fuentes de emisiones de gases de efecto invernadero (GEI) en la región, destacando la necesidad de implementar medidas de mitigación efectivas.
+Se concluye que es imperativo adoptar un enfoque integral para la gestión del cambio climático en Sucre. Las medidas de adaptación y mitigación deben ser implementadas de manera urgente para reducir la vulnerabilidad de los sectores productivos y proteger los recursos naturales. Se enfatiza la importancia de la educación y la sensibilización en la comunidad para fomentar la resiliencia. Este plan contiene anexos que se encuentran dentro del documento.</t>
+  </si>
+  <si>
+    <t>El informe proporciona un marco claro para la acción y puede servir como base para la formulación de políticas públicas que aborden el cambio climático de manera efectiva. Se sugiere incluir un plan de monitoreo y evaluación que permita medir el progreso de las acciones implementadas y ajustar las estrategias según sea necesario. Esto es fundamental para garantizar la efectividad del plan a largo plazo.</t>
+  </si>
+  <si>
+    <t>Cambio climático, Sucre, gestión territorial, variabilidad climática, recursos hídricos, biodiversidad, vulnerabilidad, gases de efecto invernadero, adaptación, mitigación</t>
   </si>
   <si>
     <t>PR0006</t>
@@ -248,10 +235,10 @@
     <t>Cartografía geológica de las unidades Neógenas del Noreste del cinturón plegado de San Jacinto, Colombia</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNINORTE/140447</t>
-  </si>
-  <si>
-    <t>Jorge Junior Galeano Rodríguez</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNINORTE/140447.pdf</t>
+  </si>
+  <si>
+    <t>Universidad del Norte</t>
   </si>
   <si>
     <t>El documento corresponde a un trabajo de pregrado del Departamento de Física y Geociencias – Universidad del Norte (Barranquilla), para optar al título de geólogo._x000D_
@@ -274,14 +261,14 @@
     <t>Este trabajo de grado proporciona una visión clara y concisa de los resultados y conclusiones del estudio, destacando su relevancia para el conocimiento geológico en el Atlántico y su potencial para futuras investigaciones o proyectos que involucren áreas como geología, geotecnia, hidrogeología. La descripción geológica no se encuentra geográficamente en superficie en la Región de La Mojana, pero la descripción geológica puede ser de utilidad para las interpretaciones geológicas que se realicen en la región de La Mojana.</t>
   </si>
   <si>
-    <t>Trabajo de grado, pregrado, Uninorte, geología, Cartografía geológica, Unidades Neógenas, Cinturón plegado de San Jacinto,        Formaciones Tubará, Imágenes satelitales,  Estructuras geológicas, Monoclinal, Sinclinal, Conglomerado del Vaivén, Geomorfología</t>
+    <t>Trabajo de grado, pregrado, Uninorte, geología, cartografía geológica, unidades neógenas, cinturón plegado de San Jacinto,        formaciones Tubará, imágenes satelitales, estructuras geológicas, monoclinal, sinclinal, conglomerado del Vaivén, geomorfología</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +290,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -374,20 +374,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -403,7 +439,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -420,7 +458,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -475,9 +515,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -513,7 +551,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -549,9 +589,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -568,9 +606,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -721,6 +757,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -730,13 +773,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -756,7 +792,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R7" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -766,16 +802,16 @@
     <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,18 +1080,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.5703125" customWidth="1"/>
+    <col min="4" max="4" width="111.42578125" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1063,11 +1099,12 @@
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1142,322 +1179,338 @@
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>2021</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>2023</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>2010</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="O5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="R5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
         <v>2023</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>2020</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>74</v>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1622,27 +1675,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0093/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0093/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0093\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0093/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{FDEDCE94-2C94-48C1-81DC-E719B80DA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061B952F-A167-45C8-8758-075D603939D7}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{FDEDCE94-2C94-48C1-81DC-E719B80DA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44857C10-6240-4583-8447-F8E4D2AA4DC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>Análisis de frecuencia hidrológico multivariado para eventos extremos mediante funciones cópula arquimedianas. Casos de estudio: cuenca baja del Rio Tunjuelo y región de la Mojana (Colombia).</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNAL/80844185.2017.pdf</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>PR0002</t>
   </si>
   <si>
-    <t>Metodología para la estimación del destino y transporte de mercurio presente en los ríos de Colombia</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/Documento Tesis DanielaCorreaCaselles.pdf</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>PR0003</t>
   </si>
   <si>
-    <t>Recursos fitogenéticos nativos de la región de La Mojana: una poderosa estrategia de resiliencia de los pequeños productores para mejorar la productividad ante los efectos de la variabilidad climática</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/nys7.02.pdf</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>PR0004</t>
   </si>
   <si>
-    <t>Evaluación de la huella de carbono y consumo de energía en el ciclo de vida de la vivienda económica hecha en madera. Caso de estudio: La Mojana, Municipio de San Marcos. Sucre – Colombia</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE LOS ANDES/u402623.pdf</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
   </si>
   <si>
     <t>PR0005</t>
-  </si>
-  <si>
-    <t>Plan Integral de Gestión del Cambio Climático Territorial</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNIVERSIDAD DE CORDOBA/LIBRO PIGCCT SUCRE 2023.pdf</t>
@@ -232,19 +217,16 @@
     <t>PR0006</t>
   </si>
   <si>
-    <t>Cartografía geológica de las unidades Neógenas del Noreste del cinturón plegado de San Jacinto, Colombia</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0093/02_PRODUCTOS/UNINORTE/140447.pdf</t>
   </si>
   <si>
     <t>Universidad del Norte</t>
   </si>
   <si>
-    <t>El documento corresponde a un trabajo de pregrado del Departamento de Física y Geociencias – Universidad del Norte (Barranquilla), para optar al título de geólogo._x000D_
-El documento presenta un estudio geológico detallado del noreste del cinturón plegado de San Jacinto, específicamente en el departamento del Atlántico, Colombia, abarcando un área de 528 km². La investigación se centra en la cartografía de las unidades Neógenas, con un enfoque particular en las formaciones Tubará e Hibacharo, y la geometría de los pliegues en los sectores de Piojó y Tubará._x000D_
-La metodología empleada incluye trabajos de campo en los municipios de Tubará, Piojó y Juan de Acosta, donde se recopilaron datos estructurales de las rocas aflorantes. Se utilizó tecnología moderna, como ArcGIS y Google Earth, para digitalizar y verificar los contactos geológicos, lo que permitió una mayor precisión en la representación cartográfica._x000D_
-Los temas tratados abarcan la identificación de estructuras geológicas, la relación estratigráfica de las unidades Neógenas, y la posible existencia de fallas en la región. El estudio también destaca la importancia de las imágenes satelitales como herramienta complementaria en la cartografía geológica._x000D_
+    <t>El documento corresponde a un trabajo de pregrado del Departamento de Física y Geociencias – Universidad del Norte (Barranquilla), para optar al título de geólogo.
+El documento presenta un estudio geológico detallado del noreste del cinturón plegado de San Jacinto, específicamente en el departamento del Atlántico, Colombia, abarcando un área de 528 km². La investigación se centra en la cartografía de las unidades Neógenas, con un enfoque particular en las formaciones Tubará e Hibacharo, y la geometría de los pliegues en los sectores de Piojó y Tubará.
+La metodología empleada incluye trabajos de campo en los municipios de Tubará, Piojó y Juan de Acosta, donde se recopilaron datos estructurales de las rocas aflorantes. Se utilizó tecnología moderna, como ArcGIS y Google Earth, para digitalizar y verificar los contactos geológicos, lo que permitió una mayor precisión en la representación cartográfica.
+Los temas tratados abarcan la identificación de estructuras geológicas, la relación estratigráfica de las unidades Neógenas, y la posible existencia de fallas en la región. El estudio también destaca la importancia de las imágenes satelitales como herramienta complementaria en la cartografía geológica.
 El objetivo principal del documento es proporcionar un mapa geológico que facilite la comprensión de las relaciones estratigráficas y estructurales en el noreste del cinturón plegado de San Jacinto, contribuyendo así al conocimiento geológico de la región y a la identificación de procesos geológicos relevantes.</t>
   </si>
   <si>
@@ -263,12 +245,30 @@
   <si>
     <t>Trabajo de grado, pregrado, Uninorte, geología, cartografía geológica, unidades neógenas, cinturón plegado de San Jacinto,        formaciones Tubará, imágenes satelitales, estructuras geológicas, monoclinal, sinclinal, conglomerado del Vaivén, geomorfología</t>
   </si>
+  <si>
+    <t>80844185.2017</t>
+  </si>
+  <si>
+    <t>Documento Tesis DanielaCorreaCaselle</t>
+  </si>
+  <si>
+    <t>nys7.02</t>
+  </si>
+  <si>
+    <t>u402623</t>
+  </si>
+  <si>
+    <t>LIBRO PIGCCT SUCRE 2023</t>
+  </si>
+  <si>
+    <t>140447</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -424,6 +424,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -757,6 +759,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -764,15 +775,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -792,7 +794,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1083,14 +1085,14 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="114.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="111.42578125" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1104,7 +1106,7 @@
     <col min="17" max="17" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,339 +1162,339 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>2021</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>2023</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="O4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>2010</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>2023</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="N6" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2">
         <v>2020</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1675,9 +1677,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>